--- a/template.xlsx
+++ b/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siemi\aProjects\xlsx-template-engine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9DB71161-C1B0-408C-91FA-CAC63C48EBEF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3D4BA44C-163B-4B36-91C0-032FD55A3AA3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10700" xr2:uid="{2C0B4293-7837-4594-B054-67970614D784}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
   <si>
     <t>to</t>
   </si>
@@ -69,31 +69,28 @@
     <t>#! FINISH</t>
   </si>
   <si>
-    <t>NIESTETY!</t>
-  </si>
-  <si>
     <t>## super.test</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>w1</t>
-  </si>
-  <si>
-    <t>w2</t>
-  </si>
-  <si>
-    <t>przed</t>
-  </si>
-  <si>
-    <t>po</t>
-  </si>
-  <si>
     <t>## i.__index</t>
   </si>
   <si>
     <t>#! CONTINUE i</t>
+  </si>
+  <si>
+    <t>foy</t>
+  </si>
+  <si>
+    <t>## i.__start</t>
+  </si>
+  <si>
+    <t>## i.__end</t>
+  </si>
+  <si>
+    <t>## i.__startOutput</t>
+  </si>
+  <si>
+    <t>## i.__endOutput</t>
   </si>
 </sst>
 </file>
@@ -134,7 +131,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,6 +162,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -298,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -317,11 +332,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -333,9 +356,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -653,13 +673,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8BC7ACE-46B4-47B2-BA3A-12797827C4B5}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="9" max="9" width="21.90625" customWidth="1"/>
+    <col min="7" max="7" width="12.08984375" customWidth="1"/>
+    <col min="9" max="9" width="21.90625" style="27" customWidth="1"/>
     <col min="10" max="10" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -672,12 +693,7 @@
       <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" t="s">
-        <v>13</v>
-      </c>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F2" s="7"/>
@@ -702,7 +718,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -725,10 +741,10 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="24"/>
+      <c r="D6" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="30"/>
       <c r="F6" s="8"/>
       <c r="G6" s="6"/>
       <c r="J6" t="s">
@@ -736,23 +752,21 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D7" s="25"/>
-      <c r="E7" s="26"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="32"/>
       <c r="F7" s="13"/>
       <c r="G7" s="17"/>
       <c r="J7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="E8" s="7"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="18"/>
-      <c r="J8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" t="s">
-        <v>16</v>
+    <row r="8" spans="1:12" s="23" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="E8" s="24"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="23" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
@@ -762,16 +776,14 @@
       <c r="J9" t="s">
         <v>10</v>
       </c>
-      <c r="L9" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -782,27 +794,22 @@
         <v>6</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="21" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="12"/>
@@ -810,23 +817,20 @@
         <v>8</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>21</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I11" s="28"/>
       <c r="J11" t="s">
         <v>9</v>
       </c>
-      <c r="L11" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E12" s="7"/>
       <c r="J12" t="s">
         <v>12</v>
       </c>
-      <c r="L12" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E13" s="7"/>
@@ -835,19 +839,27 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
+      <c r="F14" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>19</v>
+      </c>
       <c r="J14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>21</v>
+      </c>
       <c r="J15" t="s">
         <v>12</v>
       </c>

--- a/template.xlsx
+++ b/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siemi\aProjects\xlsx-template-engine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3D4BA44C-163B-4B36-91C0-032FD55A3AA3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{99C4D2B4-0E88-41CD-AC08-7391C7B02BE5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10700" xr2:uid="{2C0B4293-7837-4594-B054-67970614D784}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>to</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>## i.__endOutput</t>
+  </si>
+  <si>
+    <t>#! SUM i</t>
   </si>
 </sst>
 </file>
@@ -181,7 +184,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -309,11 +312,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -357,6 +375,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -674,7 +693,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -864,17 +883,20 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="J16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G17" s="33" t="s">
+        <v>22</v>
+      </c>
       <c r="J17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="7:10" x14ac:dyDescent="0.35">
       <c r="J18" t="s">
         <v>13</v>
       </c>

--- a/template.xlsx
+++ b/template.xlsx
@@ -8,13 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siemi\aProjects\xlsx-template-engine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{99C4D2B4-0E88-41CD-AC08-7391C7B02BE5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A534337B-837E-44F4-849A-79919065846F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10700" xr2:uid="{2C0B4293-7837-4594-B054-67970614D784}"/>
+    <workbookView xWindow="0" yWindow="1380" windowWidth="25600" windowHeight="10700" activeTab="1" xr2:uid="{2C0B4293-7837-4594-B054-67970614D784}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet2!$A$1:$H$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet4!$A$1:$H$42</definedName>
+  </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="32">
   <si>
     <t>to</t>
   </si>
@@ -55,9 +62,6 @@
   </si>
   <si>
     <t>#! END_LOOP i</t>
-  </si>
-  <si>
-    <t>#! FOR_EACH i items</t>
   </si>
   <si>
     <t>Jaś</t>
@@ -94,6 +98,36 @@
   </si>
   <si>
     <t>#! SUM i</t>
+  </si>
+  <si>
+    <t>#! FOR_EACH i c.items</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>#! WS_NAME test_nazwy_ktorej_nie_znajdzie</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -363,6 +397,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -375,7 +410,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -692,13 +726,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8BC7ACE-46B4-47B2-BA3A-12797827C4B5}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="7" max="7" width="12.08984375" customWidth="1"/>
+    <col min="1" max="8" width="11.90625" customWidth="1"/>
     <col min="9" max="9" width="21.90625" style="27" customWidth="1"/>
     <col min="10" max="10" width="13.7265625" customWidth="1"/>
   </cols>
@@ -710,7 +744,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="6"/>
       <c r="J1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K1" s="2"/>
     </row>
@@ -718,7 +752,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="6"/>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -734,7 +768,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="6"/>
       <c r="J3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -744,7 +778,7 @@
       <c r="F4" s="7"/>
       <c r="G4" s="6"/>
       <c r="J4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -756,27 +790,27 @@
       <c r="F5" s="10"/>
       <c r="G5" s="6"/>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="30"/>
+      <c r="D6" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="31"/>
       <c r="F6" s="8"/>
       <c r="G6" s="6"/>
       <c r="J6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D7" s="31"/>
-      <c r="E7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="33"/>
       <c r="F7" s="13"/>
       <c r="G7" s="17"/>
       <c r="J7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="23" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
@@ -785,7 +819,7 @@
       <c r="G8" s="26"/>
       <c r="I8" s="27"/>
       <c r="J8" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
@@ -793,13 +827,13 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="J9" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="19" t="s">
@@ -813,10 +847,10 @@
         <v>6</v>
       </c>
       <c r="G10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" t="s">
         <v>15</v>
-      </c>
-      <c r="J10" t="s">
-        <v>16</v>
       </c>
       <c r="L10" s="2"/>
     </row>
@@ -836,7 +870,7 @@
         <v>8</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I11" s="28"/>
       <c r="J11" t="s">
@@ -847,58 +881,58 @@
     <row r="12" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E12" s="7"/>
       <c r="J12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E13" s="7"/>
       <c r="J13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E14" s="22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="22" t="s">
-        <v>19</v>
-      </c>
       <c r="J14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E15" s="22"/>
       <c r="F15" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="22" t="s">
-        <v>21</v>
-      </c>
       <c r="J15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="J16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G17" s="33" t="s">
-        <v>22</v>
+      <c r="G17" s="29" t="s">
+        <v>21</v>
       </c>
       <c r="J17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="7:10" x14ac:dyDescent="0.35">
       <c r="J18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -908,4 +942,2795 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA238AF3-2E55-4D07-BE85-EB4AF6C75D63}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:J42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>-1</v>
+      </c>
+      <c r="F2">
+        <v>55</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:F18" si="0">C2-D2</f>
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>-56</v>
+      </c>
+      <c r="E3">
+        <v>-1</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <f>A2-B2</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>-55</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>-1</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H42" si="1">A3-B3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>-55</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="E5">
+        <v>-1</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>-57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="E6">
+        <v>-1</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>-62</v>
+      </c>
+      <c r="E7">
+        <v>-1</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>-51</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>-61</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="E8">
+        <v>-1</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>-111</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>-11</v>
+      </c>
+      <c r="E9">
+        <v>-1</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>-59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
+      <c r="E10">
+        <v>-1</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="G10">
+        <v>9</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>-6</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>-68</v>
+      </c>
+      <c r="E11">
+        <v>-1</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>-103</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>-61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>-67</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>102</v>
+      </c>
+      <c r="E12">
+        <v>-1</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="G12">
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>-169</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>103</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>-72</v>
+      </c>
+      <c r="E13">
+        <v>-1</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G13">
+        <v>12</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>-61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>-71</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>-8</v>
+      </c>
+      <c r="E14">
+        <v>-1</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="G14">
+        <v>13</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>-63</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>-74</v>
+      </c>
+      <c r="E15">
+        <v>-1</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>-157</v>
+      </c>
+      <c r="G15">
+        <v>14</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>-174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>-73</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>156</v>
+      </c>
+      <c r="E16">
+        <v>-1</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>188</v>
+      </c>
+      <c r="G16">
+        <v>15</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>-229</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>157</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>-189</v>
+      </c>
+      <c r="E17">
+        <v>-1</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>-49</v>
+      </c>
+      <c r="G17">
+        <v>16</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>-66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>346</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>-188</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="E18">
+        <v>-1</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="G18">
+        <v>17</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ref="B19:D42" si="2">C18-D18</f>
+        <v>-236</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>-83</v>
+      </c>
+      <c r="E19">
+        <v>-1</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ref="F19:F42" si="3">G18-H18</f>
+        <v>-213</v>
+      </c>
+      <c r="G19">
+        <v>18</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>-345</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="2"/>
+        <v>132</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="2"/>
+        <v>-82</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>212</v>
+      </c>
+      <c r="E20">
+        <v>-1</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="3"/>
+        <v>363</v>
+      </c>
+      <c r="G20">
+        <v>19</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="2"/>
+        <v>-294</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="2"/>
+        <v>213</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>-364</v>
+      </c>
+      <c r="E21">
+        <v>-1</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="3"/>
+        <v>-218</v>
+      </c>
+      <c r="G21">
+        <v>20</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>-131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="2"/>
+        <v>577</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="2"/>
+        <v>-363</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>217</v>
+      </c>
+      <c r="E22">
+        <v>-1</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="3"/>
+        <v>151</v>
+      </c>
+      <c r="G22">
+        <v>21</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="2"/>
+        <v>-580</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="2"/>
+        <v>218</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>-152</v>
+      </c>
+      <c r="E23">
+        <v>-1</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="3"/>
+        <v>-274</v>
+      </c>
+      <c r="G23">
+        <v>22</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>-576</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="2"/>
+        <v>370</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="2"/>
+        <v>-151</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>273</v>
+      </c>
+      <c r="E24">
+        <v>-1</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="3"/>
+        <v>598</v>
+      </c>
+      <c r="G24">
+        <v>23</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>581</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="2"/>
+        <v>-424</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="2"/>
+        <v>274</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>-599</v>
+      </c>
+      <c r="E25">
+        <v>-1</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="3"/>
+        <v>-558</v>
+      </c>
+      <c r="G25">
+        <v>24</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>-369</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="2"/>
+        <v>873</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="2"/>
+        <v>-598</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>557</v>
+      </c>
+      <c r="E26">
+        <v>-1</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="3"/>
+        <v>393</v>
+      </c>
+      <c r="G26">
+        <v>25</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>425</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="2"/>
+        <v>-1155</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="2"/>
+        <v>558</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>-394</v>
+      </c>
+      <c r="E27">
+        <v>-1</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="3"/>
+        <v>-400</v>
+      </c>
+      <c r="G27">
+        <v>26</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>-872</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="2"/>
+        <v>952</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="2"/>
+        <v>-393</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="2"/>
+        <v>399</v>
+      </c>
+      <c r="E28">
+        <v>-1</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="3"/>
+        <v>898</v>
+      </c>
+      <c r="G28">
+        <v>27</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="2"/>
+        <v>-792</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="2"/>
+        <v>-899</v>
+      </c>
+      <c r="E29">
+        <v>-1</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="3"/>
+        <v>-1129</v>
+      </c>
+      <c r="G29">
+        <v>28</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>-951</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="2"/>
+        <v>1299</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="2"/>
+        <v>-898</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="2"/>
+        <v>1128</v>
+      </c>
+      <c r="E30">
+        <v>-1</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="3"/>
+        <v>979</v>
+      </c>
+      <c r="G30">
+        <v>29</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>793</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="2"/>
+        <v>-2026</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="2"/>
+        <v>1129</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="2"/>
+        <v>-980</v>
+      </c>
+      <c r="E31">
+        <v>-1</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="3"/>
+        <v>-764</v>
+      </c>
+      <c r="G31">
+        <v>30</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>-1298</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="2"/>
+        <v>2109</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="2"/>
+        <v>-979</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="2"/>
+        <v>763</v>
+      </c>
+      <c r="E32">
+        <v>-1</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="3"/>
+        <v>1328</v>
+      </c>
+      <c r="G32">
+        <v>31</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="2"/>
+        <v>-1742</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="2"/>
+        <v>764</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="2"/>
+        <v>-1329</v>
+      </c>
+      <c r="E33">
+        <v>-1</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="3"/>
+        <v>-1996</v>
+      </c>
+      <c r="G33">
+        <v>32</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>-2108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="2"/>
+        <v>2093</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="2"/>
+        <v>-1328</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="2"/>
+        <v>1995</v>
+      </c>
+      <c r="E34">
+        <v>-1</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="3"/>
+        <v>2140</v>
+      </c>
+      <c r="G34">
+        <v>33</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="2"/>
+        <v>-3323</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="2"/>
+        <v>1996</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="2"/>
+        <v>-2141</v>
+      </c>
+      <c r="E35">
+        <v>-1</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="3"/>
+        <v>-1710</v>
+      </c>
+      <c r="G35">
+        <v>34</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>-2092</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="2"/>
+        <v>4137</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="2"/>
+        <v>-2140</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="2"/>
+        <v>1709</v>
+      </c>
+      <c r="E36">
+        <v>-1</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="3"/>
+        <v>2126</v>
+      </c>
+      <c r="G36">
+        <v>35</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>3324</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="2"/>
+        <v>-3849</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="2"/>
+        <v>1710</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="2"/>
+        <v>-2127</v>
+      </c>
+      <c r="E37">
+        <v>-1</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="3"/>
+        <v>-3289</v>
+      </c>
+      <c r="G37">
+        <v>36</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="1"/>
+        <v>-4136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="2"/>
+        <v>3837</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="2"/>
+        <v>-2126</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="2"/>
+        <v>3288</v>
+      </c>
+      <c r="E38">
+        <v>-1</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="3"/>
+        <v>4172</v>
+      </c>
+      <c r="G38">
+        <v>37</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="1"/>
+        <v>3850</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="2"/>
+        <v>-5414</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="2"/>
+        <v>3289</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="2"/>
+        <v>-4173</v>
+      </c>
+      <c r="E39">
+        <v>-1</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="3"/>
+        <v>-3813</v>
+      </c>
+      <c r="G39">
+        <v>38</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="1"/>
+        <v>-3836</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="2"/>
+        <v>7462</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="2"/>
+        <v>-4172</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="2"/>
+        <v>3812</v>
+      </c>
+      <c r="E40">
+        <v>-1</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="3"/>
+        <v>3874</v>
+      </c>
+      <c r="G40">
+        <v>39</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="1"/>
+        <v>5415</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="2"/>
+        <v>-7984</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="2"/>
+        <v>3813</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="2"/>
+        <v>-3875</v>
+      </c>
+      <c r="E41">
+        <v>-1</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="3"/>
+        <v>-5376</v>
+      </c>
+      <c r="G41">
+        <v>40</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="1"/>
+        <v>-7461</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="2"/>
+        <v>7688</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="2"/>
+        <v>-3874</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="2"/>
+        <v>5375</v>
+      </c>
+      <c r="E42">
+        <v>-1</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="3"/>
+        <v>7501</v>
+      </c>
+      <c r="G42">
+        <v>41</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="1"/>
+        <v>7985</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H42" xr:uid="{00BA18CD-00C5-443C-B298-F16E64E4C777}">
+    <filterColumn colId="2">
+      <customFilters>
+        <customFilter operator="greaterThan" val="0"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A482E31-577E-44B8-8FD8-8FFB3BDAFEC8}">
+  <dimension ref="A1:J42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>-1</v>
+      </c>
+      <c r="F2">
+        <v>55</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:F3" si="0">C2-D2</f>
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>-56</v>
+      </c>
+      <c r="E3">
+        <v>-1</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <f>A2-B2</f>
+        <v>-1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B42" si="1">C3-D3</f>
+        <v>58</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C42" si="2">D3-E3</f>
+        <v>-55</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D42" si="3">E3-F3</f>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>-1</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F42" si="4">G3-H3</f>
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H42" si="5">A3-B3</f>
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="1"/>
+        <v>-55</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="3"/>
+        <v>-4</v>
+      </c>
+      <c r="E5">
+        <v>-1</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="5"/>
+        <v>-57</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+      <c r="E6">
+        <v>-1</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="5"/>
+        <v>56</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="3"/>
+        <v>-62</v>
+      </c>
+      <c r="E7">
+        <v>-1</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="4"/>
+        <v>-51</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="5"/>
+        <v>-4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="2"/>
+        <v>-61</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="E8">
+        <v>-1</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>-111</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="3"/>
+        <v>-11</v>
+      </c>
+      <c r="E9">
+        <v>-1</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="5"/>
+        <v>-59</v>
+      </c>
+      <c r="I9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="2"/>
+        <v>-10</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="3"/>
+        <v>-7</v>
+      </c>
+      <c r="E10">
+        <v>-1</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="4"/>
+        <v>67</v>
+      </c>
+      <c r="G10">
+        <v>9</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="5"/>
+        <v>112</v>
+      </c>
+      <c r="I10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="3"/>
+        <v>-68</v>
+      </c>
+      <c r="E11">
+        <v>-1</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="4"/>
+        <v>-103</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="5"/>
+        <v>-61</v>
+      </c>
+      <c r="I11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="2"/>
+        <v>-67</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="3"/>
+        <v>102</v>
+      </c>
+      <c r="E12">
+        <v>-1</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="G12">
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="I12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>-169</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="2"/>
+        <v>103</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="3"/>
+        <v>-72</v>
+      </c>
+      <c r="E13">
+        <v>-1</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="G13">
+        <v>12</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="5"/>
+        <v>-61</v>
+      </c>
+      <c r="I13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>175</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="2"/>
+        <v>-71</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="3"/>
+        <v>-8</v>
+      </c>
+      <c r="E14">
+        <v>-1</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="4"/>
+        <v>73</v>
+      </c>
+      <c r="G14">
+        <v>13</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="5"/>
+        <v>170</v>
+      </c>
+      <c r="I14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>-63</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="2"/>
+        <v>-7</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="3"/>
+        <v>-74</v>
+      </c>
+      <c r="E15">
+        <v>-1</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="4"/>
+        <v>-157</v>
+      </c>
+      <c r="G15">
+        <v>14</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="5"/>
+        <v>-174</v>
+      </c>
+      <c r="I15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="2"/>
+        <v>-73</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="3"/>
+        <v>156</v>
+      </c>
+      <c r="E16">
+        <v>-1</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="4"/>
+        <v>188</v>
+      </c>
+      <c r="G16">
+        <v>15</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="I16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>-229</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="2"/>
+        <v>157</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="3"/>
+        <v>-189</v>
+      </c>
+      <c r="E17">
+        <v>-1</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="4"/>
+        <v>-49</v>
+      </c>
+      <c r="G17">
+        <v>16</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="5"/>
+        <v>-66</v>
+      </c>
+      <c r="I17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>346</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="2"/>
+        <v>-188</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="E18">
+        <v>-1</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="4"/>
+        <v>82</v>
+      </c>
+      <c r="G18">
+        <v>17</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="5"/>
+        <v>230</v>
+      </c>
+      <c r="I18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>-236</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="3"/>
+        <v>-83</v>
+      </c>
+      <c r="E19">
+        <v>-1</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="4"/>
+        <v>-213</v>
+      </c>
+      <c r="G19">
+        <v>18</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="5"/>
+        <v>-345</v>
+      </c>
+      <c r="I19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>132</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="2"/>
+        <v>-82</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="3"/>
+        <v>212</v>
+      </c>
+      <c r="E20">
+        <v>-1</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="4"/>
+        <v>363</v>
+      </c>
+      <c r="G20">
+        <v>19</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="5"/>
+        <v>237</v>
+      </c>
+      <c r="I20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="1"/>
+        <v>-294</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="2"/>
+        <v>213</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="3"/>
+        <v>-364</v>
+      </c>
+      <c r="E21">
+        <v>-1</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="4"/>
+        <v>-218</v>
+      </c>
+      <c r="G21">
+        <v>20</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="5"/>
+        <v>-131</v>
+      </c>
+      <c r="I21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="1"/>
+        <v>577</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="2"/>
+        <v>-363</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="3"/>
+        <v>217</v>
+      </c>
+      <c r="E22">
+        <v>-1</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="4"/>
+        <v>151</v>
+      </c>
+      <c r="G22">
+        <v>21</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="5"/>
+        <v>295</v>
+      </c>
+      <c r="I22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="1"/>
+        <v>-580</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="2"/>
+        <v>218</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="3"/>
+        <v>-152</v>
+      </c>
+      <c r="E23">
+        <v>-1</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="4"/>
+        <v>-274</v>
+      </c>
+      <c r="G23">
+        <v>22</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="5"/>
+        <v>-576</v>
+      </c>
+      <c r="I23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="1"/>
+        <v>370</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="2"/>
+        <v>-151</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="3"/>
+        <v>273</v>
+      </c>
+      <c r="E24">
+        <v>-1</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="4"/>
+        <v>598</v>
+      </c>
+      <c r="G24">
+        <v>23</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="5"/>
+        <v>581</v>
+      </c>
+      <c r="I24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="1"/>
+        <v>-424</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="2"/>
+        <v>274</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="3"/>
+        <v>-599</v>
+      </c>
+      <c r="E25">
+        <v>-1</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="4"/>
+        <v>-558</v>
+      </c>
+      <c r="G25">
+        <v>24</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="5"/>
+        <v>-369</v>
+      </c>
+      <c r="I25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="1"/>
+        <v>873</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="2"/>
+        <v>-598</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="3"/>
+        <v>557</v>
+      </c>
+      <c r="E26">
+        <v>-1</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="4"/>
+        <v>393</v>
+      </c>
+      <c r="G26">
+        <v>25</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="5"/>
+        <v>425</v>
+      </c>
+      <c r="I26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="1"/>
+        <v>-1155</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="2"/>
+        <v>558</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="3"/>
+        <v>-394</v>
+      </c>
+      <c r="E27">
+        <v>-1</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="4"/>
+        <v>-400</v>
+      </c>
+      <c r="G27">
+        <v>26</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="5"/>
+        <v>-872</v>
+      </c>
+      <c r="I27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="1"/>
+        <v>952</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="2"/>
+        <v>-393</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="3"/>
+        <v>399</v>
+      </c>
+      <c r="E28">
+        <v>-1</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="4"/>
+        <v>898</v>
+      </c>
+      <c r="G28">
+        <v>27</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="5"/>
+        <v>1156</v>
+      </c>
+      <c r="I28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="1"/>
+        <v>-792</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="3"/>
+        <v>-899</v>
+      </c>
+      <c r="E29">
+        <v>-1</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="4"/>
+        <v>-1129</v>
+      </c>
+      <c r="G29">
+        <v>28</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="5"/>
+        <v>-951</v>
+      </c>
+      <c r="I29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="1"/>
+        <v>1299</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="2"/>
+        <v>-898</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="3"/>
+        <v>1128</v>
+      </c>
+      <c r="E30">
+        <v>-1</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="4"/>
+        <v>979</v>
+      </c>
+      <c r="G30">
+        <v>29</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="5"/>
+        <v>793</v>
+      </c>
+      <c r="I30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="1"/>
+        <v>-2026</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="2"/>
+        <v>1129</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="3"/>
+        <v>-980</v>
+      </c>
+      <c r="E31">
+        <v>-1</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="4"/>
+        <v>-764</v>
+      </c>
+      <c r="G31">
+        <v>30</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="5"/>
+        <v>-1298</v>
+      </c>
+      <c r="I31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="1"/>
+        <v>2109</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="2"/>
+        <v>-979</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="3"/>
+        <v>763</v>
+      </c>
+      <c r="E32">
+        <v>-1</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="4"/>
+        <v>1328</v>
+      </c>
+      <c r="G32">
+        <v>31</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="5"/>
+        <v>2027</v>
+      </c>
+      <c r="I32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="1"/>
+        <v>-1742</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="2"/>
+        <v>764</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="3"/>
+        <v>-1329</v>
+      </c>
+      <c r="E33">
+        <v>-1</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="4"/>
+        <v>-1996</v>
+      </c>
+      <c r="G33">
+        <v>32</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="5"/>
+        <v>-2108</v>
+      </c>
+      <c r="I33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="1"/>
+        <v>2093</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="2"/>
+        <v>-1328</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="3"/>
+        <v>1995</v>
+      </c>
+      <c r="E34">
+        <v>-1</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="4"/>
+        <v>2140</v>
+      </c>
+      <c r="G34">
+        <v>33</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="5"/>
+        <v>1743</v>
+      </c>
+      <c r="I34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="1"/>
+        <v>-3323</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="2"/>
+        <v>1996</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="3"/>
+        <v>-2141</v>
+      </c>
+      <c r="E35">
+        <v>-1</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="4"/>
+        <v>-1710</v>
+      </c>
+      <c r="G35">
+        <v>34</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="5"/>
+        <v>-2092</v>
+      </c>
+      <c r="I35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="1"/>
+        <v>4137</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="2"/>
+        <v>-2140</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="3"/>
+        <v>1709</v>
+      </c>
+      <c r="E36">
+        <v>-1</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="4"/>
+        <v>2126</v>
+      </c>
+      <c r="G36">
+        <v>35</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="5"/>
+        <v>3324</v>
+      </c>
+      <c r="I36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="1"/>
+        <v>-3849</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="2"/>
+        <v>1710</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="3"/>
+        <v>-2127</v>
+      </c>
+      <c r="E37">
+        <v>-1</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="4"/>
+        <v>-3289</v>
+      </c>
+      <c r="G37">
+        <v>36</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="5"/>
+        <v>-4136</v>
+      </c>
+      <c r="I37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="1"/>
+        <v>3837</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="2"/>
+        <v>-2126</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="3"/>
+        <v>3288</v>
+      </c>
+      <c r="E38">
+        <v>-1</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="4"/>
+        <v>4172</v>
+      </c>
+      <c r="G38">
+        <v>37</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="5"/>
+        <v>3850</v>
+      </c>
+      <c r="I38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="1"/>
+        <v>-5414</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="2"/>
+        <v>3289</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="3"/>
+        <v>-4173</v>
+      </c>
+      <c r="E39">
+        <v>-1</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="4"/>
+        <v>-3813</v>
+      </c>
+      <c r="G39">
+        <v>38</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="5"/>
+        <v>-3836</v>
+      </c>
+      <c r="I39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="1"/>
+        <v>7462</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="2"/>
+        <v>-4172</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="3"/>
+        <v>3812</v>
+      </c>
+      <c r="E40">
+        <v>-1</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="4"/>
+        <v>3874</v>
+      </c>
+      <c r="G40">
+        <v>39</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="5"/>
+        <v>5415</v>
+      </c>
+      <c r="I40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="1"/>
+        <v>-7984</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="2"/>
+        <v>3813</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="3"/>
+        <v>-3875</v>
+      </c>
+      <c r="E41">
+        <v>-1</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="4"/>
+        <v>-5376</v>
+      </c>
+      <c r="G41">
+        <v>40</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="5"/>
+        <v>-7461</v>
+      </c>
+      <c r="I41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="1"/>
+        <v>7688</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="2"/>
+        <v>-3874</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="3"/>
+        <v>5375</v>
+      </c>
+      <c r="E42">
+        <v>-1</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="4"/>
+        <v>7501</v>
+      </c>
+      <c r="G42">
+        <v>41</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="5"/>
+        <v>7985</v>
+      </c>
+      <c r="I42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H42" xr:uid="{7A102D3E-CC4D-41A5-A519-D0D825831E9F}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{623C8D9E-3F71-4572-805A-A8230554BBA1}">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>